--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ncam1-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.245905290011884</v>
+        <v>0.300794</v>
       </c>
       <c r="H2">
-        <v>0.245905290011884</v>
+        <v>0.902382</v>
       </c>
       <c r="I2">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="J2">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.9248853996904</v>
+        <v>15.933008</v>
       </c>
       <c r="N2">
-        <v>15.9248853996904</v>
+        <v>47.799024</v>
       </c>
       <c r="O2">
-        <v>0.7534534558943254</v>
+        <v>0.7524552897049799</v>
       </c>
       <c r="P2">
-        <v>0.7534534558943254</v>
+        <v>0.7524552897049799</v>
       </c>
       <c r="Q2">
-        <v>3.916013562616885</v>
+        <v>4.792553208352</v>
       </c>
       <c r="R2">
-        <v>3.916013562616885</v>
+        <v>43.132978875168</v>
       </c>
       <c r="S2">
-        <v>0.002373898907556307</v>
+        <v>0.002886921045235979</v>
       </c>
       <c r="T2">
-        <v>0.002373898907556307</v>
+        <v>0.002886921045235979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.245905290011884</v>
+        <v>0.300794</v>
       </c>
       <c r="H3">
-        <v>0.245905290011884</v>
+        <v>0.902382</v>
       </c>
       <c r="I3">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="J3">
-        <v>0.003150690847570092</v>
+        <v>0.003836667885433928</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.21097279448042</v>
+        <v>5.241682666666667</v>
       </c>
       <c r="N3">
-        <v>5.21097279448042</v>
+        <v>15.725048</v>
       </c>
       <c r="O3">
-        <v>0.2465465441056746</v>
+        <v>0.2475447102950201</v>
       </c>
       <c r="P3">
-        <v>0.2465465441056746</v>
+        <v>0.2475447102950201</v>
       </c>
       <c r="Q3">
-        <v>1.281405776270745</v>
+        <v>1.576666696037333</v>
       </c>
       <c r="R3">
-        <v>1.281405776270745</v>
+        <v>14.190000264336</v>
       </c>
       <c r="S3">
-        <v>0.000776791940013785</v>
+        <v>0.0009497468401979491</v>
       </c>
       <c r="T3">
-        <v>0.000776791940013785</v>
+        <v>0.0009497468401979491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.18835167720775</v>
+        <v>6.268658666666667</v>
       </c>
       <c r="H4">
-        <v>6.18835167720775</v>
+        <v>18.805976</v>
       </c>
       <c r="I4">
-        <v>0.07928899370152312</v>
+        <v>0.07995758356598558</v>
       </c>
       <c r="J4">
-        <v>0.07928899370152312</v>
+        <v>0.07995758356598558</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.9248853996904</v>
+        <v>15.933008</v>
       </c>
       <c r="N4">
-        <v>15.9248853996904</v>
+        <v>47.799024</v>
       </c>
       <c r="O4">
-        <v>0.7534534558943254</v>
+        <v>0.7524552897049799</v>
       </c>
       <c r="P4">
-        <v>0.7534534558943254</v>
+        <v>0.7524552897049799</v>
       </c>
       <c r="Q4">
-        <v>98.5487912725153</v>
+        <v>99.87858868526935</v>
       </c>
       <c r="R4">
-        <v>98.5487912725153</v>
+        <v>898.9072981674241</v>
       </c>
       <c r="S4">
-        <v>0.059740566318796</v>
+        <v>0.06016450670625381</v>
       </c>
       <c r="T4">
-        <v>0.059740566318796</v>
+        <v>0.06016450670625381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.18835167720775</v>
+        <v>6.268658666666667</v>
       </c>
       <c r="H5">
-        <v>6.18835167720775</v>
+        <v>18.805976</v>
       </c>
       <c r="I5">
-        <v>0.07928899370152312</v>
+        <v>0.07995758356598558</v>
       </c>
       <c r="J5">
-        <v>0.07928899370152312</v>
+        <v>0.07995758356598558</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.21097279448042</v>
+        <v>5.241682666666667</v>
       </c>
       <c r="N5">
-        <v>5.21097279448042</v>
+        <v>15.725048</v>
       </c>
       <c r="O5">
-        <v>0.2465465441056746</v>
+        <v>0.2475447102950201</v>
       </c>
       <c r="P5">
-        <v>0.2465465441056746</v>
+        <v>0.2475447102950201</v>
       </c>
       <c r="Q5">
-        <v>32.24733223260687</v>
+        <v>32.85831947631645</v>
       </c>
       <c r="R5">
-        <v>32.24733223260687</v>
+        <v>295.724875286848</v>
       </c>
       <c r="S5">
-        <v>0.01954842738272713</v>
+        <v>0.01979307685973176</v>
       </c>
       <c r="T5">
-        <v>0.01954842738272713</v>
+        <v>0.01979307685973176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -779,49 +782,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>71.6137972243027</v>
+        <v>0.04541633333333334</v>
       </c>
       <c r="H6">
-        <v>71.6137972243027</v>
+        <v>0.136249</v>
       </c>
       <c r="I6">
-        <v>0.9175603154509068</v>
+        <v>0.0005792914339187697</v>
       </c>
       <c r="J6">
-        <v>0.9175603154509068</v>
+        <v>0.0005792914339187697</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.9248853996904</v>
+        <v>15.933008</v>
       </c>
       <c r="N6">
-        <v>15.9248853996904</v>
+        <v>47.799024</v>
       </c>
       <c r="O6">
-        <v>0.7534534558943254</v>
+        <v>0.7524552897049799</v>
       </c>
       <c r="P6">
-        <v>0.7534534558943254</v>
+        <v>0.7524552897049799</v>
       </c>
       <c r="Q6">
-        <v>1140.441513833687</v>
+        <v>0.7236188023306668</v>
       </c>
       <c r="R6">
-        <v>1140.441513833687</v>
+        <v>6.512569220976001</v>
       </c>
       <c r="S6">
-        <v>0.6913389906679731</v>
+        <v>0.0004358909037329611</v>
       </c>
       <c r="T6">
-        <v>0.6913389906679731</v>
+        <v>0.0004358909037329611</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,185 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.04541633333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.136249</v>
+      </c>
+      <c r="I7">
+        <v>0.0005792914339187697</v>
+      </c>
+      <c r="J7">
+        <v>0.0005792914339187697</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.241682666666667</v>
+      </c>
+      <c r="N7">
+        <v>15.725048</v>
+      </c>
+      <c r="O7">
+        <v>0.2475447102950201</v>
+      </c>
+      <c r="P7">
+        <v>0.2475447102950201</v>
+      </c>
+      <c r="Q7">
+        <v>0.2380580072168889</v>
+      </c>
+      <c r="R7">
+        <v>2.142522064952</v>
+      </c>
+      <c r="S7">
+        <v>0.0001434005301858087</v>
+      </c>
+      <c r="T7">
+        <v>0.0001434005301858087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>71.6137972243027</v>
-      </c>
-      <c r="H7">
-        <v>71.6137972243027</v>
-      </c>
-      <c r="I7">
-        <v>0.9175603154509068</v>
-      </c>
-      <c r="J7">
-        <v>0.9175603154509068</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5.21097279448042</v>
-      </c>
-      <c r="N7">
-        <v>5.21097279448042</v>
-      </c>
-      <c r="O7">
-        <v>0.2465465441056746</v>
-      </c>
-      <c r="P7">
-        <v>0.2465465441056746</v>
-      </c>
-      <c r="Q7">
-        <v>373.1775490452788</v>
-      </c>
-      <c r="R7">
-        <v>373.1775490452788</v>
-      </c>
-      <c r="S7">
-        <v>0.2262213247829337</v>
-      </c>
-      <c r="T7">
-        <v>0.2262213247829337</v>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>71.78493233333333</v>
+      </c>
+      <c r="H8">
+        <v>215.354797</v>
+      </c>
+      <c r="I8">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="J8">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>15.933008</v>
+      </c>
+      <c r="N8">
+        <v>47.799024</v>
+      </c>
+      <c r="O8">
+        <v>0.7524552897049799</v>
+      </c>
+      <c r="P8">
+        <v>0.7524552897049799</v>
+      </c>
+      <c r="Q8">
+        <v>1143.749901146459</v>
+      </c>
+      <c r="R8">
+        <v>10293.74911031813</v>
+      </c>
+      <c r="S8">
+        <v>0.6889679710497572</v>
+      </c>
+      <c r="T8">
+        <v>0.6889679710497572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>71.78493233333333</v>
+      </c>
+      <c r="H9">
+        <v>215.354797</v>
+      </c>
+      <c r="I9">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="J9">
+        <v>0.9156264571146617</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.241682666666667</v>
+      </c>
+      <c r="N9">
+        <v>15.725048</v>
+      </c>
+      <c r="O9">
+        <v>0.2475447102950201</v>
+      </c>
+      <c r="P9">
+        <v>0.2475447102950201</v>
+      </c>
+      <c r="Q9">
+        <v>376.2738355394729</v>
+      </c>
+      <c r="R9">
+        <v>3386.464519855256</v>
+      </c>
+      <c r="S9">
+        <v>0.2266584860649046</v>
+      </c>
+      <c r="T9">
+        <v>0.2266584860649046</v>
       </c>
     </row>
   </sheetData>
